--- a/test_docs/testsuite/info_page/good/text_exact_alternatives.xlsx
+++ b/test_docs/testsuite/info_page/good/text_exact_alternatives.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Nom source</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>o1</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>x</t>
@@ -343,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -385,6 +388,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
@@ -754,80 +763,92 @@
       <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="E5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
@@ -835,7 +856,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="14"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
@@ -843,7 +864,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="14"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
@@ -851,7 +872,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="14"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
@@ -859,7 +880,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="14"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
@@ -867,15 +888,15 @@
       <c r="C13" s="5"/>
       <c r="D13" s="14"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
